--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">After repelling the Ink Spirits once more, the group slowly comes to accept the situation as it is. Mr.Nothing opens up and explains why he has been hiding his martial arts. Faced with the reality of the unreal world, our operators are at a loss.
+    <t xml:space="preserve">After repelling the Ink Spirits once more, the group slowly comes to accept the situation as it is. Mr. Nothing opens up and explains why he has been hiding his martial arts. Faced with the reality of the unreal world, our operators are at a loss.
 </t>
   </si>
   <si>
